--- a/3.xlsx
+++ b/3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rstaffolani\Desktop\SALUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E07DC92E-06BB-4E04-8818-D0DC589C3806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCA27556-BE35-4FA8-B12B-964D3D9EEBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C887C897-BF9F-467F-93E3-66BCF69596A9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CB4EFBED-802E-44AC-ABC6-D4F23986BDF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="357">
   <si>
     <t>Equipo</t>
   </si>
@@ -174,7 +174,7 @@
     <t>Calidad – GEO</t>
   </si>
   <si>
-    <t>2555522</t>
+    <t>2557944</t>
   </si>
   <si>
     <t>LOG IN -TORTUGUITAS-</t>
@@ -201,13 +201,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>0012551528</t>
-  </si>
-  <si>
-    <t>00000000004011458673</t>
-  </si>
-  <si>
-    <t>000000000002555522</t>
+    <t>0012553950</t>
+  </si>
+  <si>
+    <t>00000000004011466674</t>
+  </si>
+  <si>
+    <t>000000000002557944</t>
   </si>
   <si>
     <t>1667</t>
@@ -216,76 +216,82 @@
     <t>Envio</t>
   </si>
   <si>
-    <t>20251120</t>
-  </si>
-  <si>
-    <t>Entregado</t>
+    <t>20251125</t>
   </si>
   <si>
     <t>GBAN</t>
   </si>
   <si>
-    <t>PEND. DE CARGA DE NOVEDADES</t>
+    <t>PENDIENTE DE DISTRIBUCION EN CONTENEDOR</t>
   </si>
   <si>
     <t>AR</t>
   </si>
   <si>
-    <t>2555549</t>
-  </si>
-  <si>
-    <t>0012551572</t>
-  </si>
-  <si>
-    <t>000000000002555549</t>
-  </si>
-  <si>
-    <t>2555551</t>
-  </si>
-  <si>
-    <t>0012551582</t>
-  </si>
-  <si>
-    <t>000000000002555551</t>
-  </si>
-  <si>
-    <t>2555586</t>
-  </si>
-  <si>
-    <t>0012551655</t>
-  </si>
-  <si>
-    <t>000000000002555586</t>
-  </si>
-  <si>
-    <t>2555587</t>
-  </si>
-  <si>
-    <t>0012551668</t>
-  </si>
-  <si>
-    <t>000000000002555587</t>
-  </si>
-  <si>
-    <t>2555589</t>
-  </si>
-  <si>
-    <t>0012551688</t>
-  </si>
-  <si>
-    <t>000000000002555589</t>
-  </si>
-  <si>
-    <t>2555590</t>
-  </si>
-  <si>
-    <t>0012551689</t>
-  </si>
-  <si>
-    <t>000000000002555590</t>
-  </si>
-  <si>
-    <t>2555838</t>
+    <t>2557945</t>
+  </si>
+  <si>
+    <t>0012553951</t>
+  </si>
+  <si>
+    <t>000000000002557945</t>
+  </si>
+  <si>
+    <t>2558167</t>
+  </si>
+  <si>
+    <t>0012554236</t>
+  </si>
+  <si>
+    <t>000000000002558167</t>
+  </si>
+  <si>
+    <t>2558168</t>
+  </si>
+  <si>
+    <t>0012554237</t>
+  </si>
+  <si>
+    <t>000000000002558168</t>
+  </si>
+  <si>
+    <t>2558169</t>
+  </si>
+  <si>
+    <t>0012554251</t>
+  </si>
+  <si>
+    <t>000000000002558169</t>
+  </si>
+  <si>
+    <t>2558171</t>
+  </si>
+  <si>
+    <t>0012554260</t>
+  </si>
+  <si>
+    <t>000000000002558171</t>
+  </si>
+  <si>
+    <t>2558252</t>
+  </si>
+  <si>
+    <t>0012554261</t>
+  </si>
+  <si>
+    <t>000000000002558252</t>
+  </si>
+  <si>
+    <t>2558254</t>
+  </si>
+  <si>
+    <t>0012554271</t>
+  </si>
+  <si>
+    <t>000000000002558254</t>
+  </si>
+  <si>
+    <t>2558417</t>
   </si>
   <si>
     <t>TRANSFARMACO S.A.</t>
@@ -297,46 +303,277 @@
     <t>1088</t>
   </si>
   <si>
-    <t>0012551901</t>
-  </si>
-  <si>
-    <t>00000000004011459026</t>
-  </si>
-  <si>
-    <t>000000000002555838</t>
+    <t>0012554475</t>
+  </si>
+  <si>
+    <t>00000000004011466740</t>
+  </si>
+  <si>
+    <t>000000000002558417</t>
   </si>
   <si>
     <t>1617</t>
   </si>
   <si>
-    <t>2555839</t>
-  </si>
-  <si>
-    <t>0012551902</t>
-  </si>
-  <si>
-    <t>000000000002555839</t>
-  </si>
-  <si>
-    <t>2555840</t>
-  </si>
-  <si>
-    <t>0012551903</t>
-  </si>
-  <si>
-    <t>000000000002555840</t>
-  </si>
-  <si>
-    <t>2555841</t>
-  </si>
-  <si>
-    <t>0012551904</t>
-  </si>
-  <si>
-    <t>000000000002555841</t>
-  </si>
-  <si>
-    <t>2555898</t>
+    <t>2558479</t>
+  </si>
+  <si>
+    <t>0012554513</t>
+  </si>
+  <si>
+    <t>000000000002558479</t>
+  </si>
+  <si>
+    <t>2558480</t>
+  </si>
+  <si>
+    <t>0012554516</t>
+  </si>
+  <si>
+    <t>000000000002558480</t>
+  </si>
+  <si>
+    <t>2558519</t>
+  </si>
+  <si>
+    <t>0012554539</t>
+  </si>
+  <si>
+    <t>000000000002558519</t>
+  </si>
+  <si>
+    <t>2558520</t>
+  </si>
+  <si>
+    <t>0012554540</t>
+  </si>
+  <si>
+    <t>000000000002558520</t>
+  </si>
+  <si>
+    <t>2558521</t>
+  </si>
+  <si>
+    <t>0012554542</t>
+  </si>
+  <si>
+    <t>000000000002558521</t>
+  </si>
+  <si>
+    <t>2558532</t>
+  </si>
+  <si>
+    <t>0012554543</t>
+  </si>
+  <si>
+    <t>000000000002558532</t>
+  </si>
+  <si>
+    <t>2558533</t>
+  </si>
+  <si>
+    <t>0012554544</t>
+  </si>
+  <si>
+    <t>000000000002558533</t>
+  </si>
+  <si>
+    <t>2558534</t>
+  </si>
+  <si>
+    <t>0012554545</t>
+  </si>
+  <si>
+    <t>000000000002558534</t>
+  </si>
+  <si>
+    <t>2558535</t>
+  </si>
+  <si>
+    <t>0012554546</t>
+  </si>
+  <si>
+    <t>000000000002558535</t>
+  </si>
+  <si>
+    <t>2558536</t>
+  </si>
+  <si>
+    <t>0012554547</t>
+  </si>
+  <si>
+    <t>000000000002558536</t>
+  </si>
+  <si>
+    <t>2558538</t>
+  </si>
+  <si>
+    <t>0012554553</t>
+  </si>
+  <si>
+    <t>000000000002558538</t>
+  </si>
+  <si>
+    <t>2558539</t>
+  </si>
+  <si>
+    <t>SERVICIO NACIONAL DE SANIDAD Y CALI</t>
+  </si>
+  <si>
+    <t>AV. PASEO COLÓN</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>Capital Federal</t>
+  </si>
+  <si>
+    <t>0012554554</t>
+  </si>
+  <si>
+    <t>000000000002558539</t>
+  </si>
+  <si>
+    <t>1063</t>
+  </si>
+  <si>
+    <t>BUE</t>
+  </si>
+  <si>
+    <t>2558540</t>
+  </si>
+  <si>
+    <t>LABORATORIO ELEA PHOENIX S A</t>
+  </si>
+  <si>
+    <t>AV. GRAL LEMOS</t>
+  </si>
+  <si>
+    <t>2809</t>
+  </si>
+  <si>
+    <t>0012554557</t>
+  </si>
+  <si>
+    <t>000000000002558540</t>
+  </si>
+  <si>
+    <t>1613</t>
+  </si>
+  <si>
+    <t>2558541</t>
+  </si>
+  <si>
+    <t>0012554558</t>
+  </si>
+  <si>
+    <t>000000000002558541</t>
+  </si>
+  <si>
+    <t>2558552</t>
+  </si>
+  <si>
+    <t>RINDE ELI LILLY</t>
+  </si>
+  <si>
+    <t>TRONADOR 4890 P12°</t>
+  </si>
+  <si>
+    <t>0012554559</t>
+  </si>
+  <si>
+    <t>000000000002558552</t>
+  </si>
+  <si>
+    <t>1430</t>
+  </si>
+  <si>
+    <t>2558553</t>
+  </si>
+  <si>
+    <t>Rendicion Silmag</t>
+  </si>
+  <si>
+    <t>CORRIENTES 1820 1° D</t>
+  </si>
+  <si>
+    <t>0012554561</t>
+  </si>
+  <si>
+    <t>000000000002558553</t>
+  </si>
+  <si>
+    <t>1045</t>
+  </si>
+  <si>
+    <t>2558554</t>
+  </si>
+  <si>
+    <t>Rendición Raffo Disp.Medico</t>
+  </si>
+  <si>
+    <t>AMARO AVALOS 2829, 3 PISO</t>
+  </si>
+  <si>
+    <t>0012554563</t>
+  </si>
+  <si>
+    <t>000000000002558554</t>
+  </si>
+  <si>
+    <t>1605</t>
+  </si>
+  <si>
+    <t>2558555</t>
+  </si>
+  <si>
+    <t>ABC S.A.</t>
+  </si>
+  <si>
+    <t>AV. GARAY 4132/8</t>
+  </si>
+  <si>
+    <t>0012554566</t>
+  </si>
+  <si>
+    <t>000000000002558555</t>
+  </si>
+  <si>
+    <t>1256</t>
+  </si>
+  <si>
+    <t>2558556</t>
+  </si>
+  <si>
+    <t>0012554567</t>
+  </si>
+  <si>
+    <t>000000000002558556</t>
+  </si>
+  <si>
+    <t>2558557</t>
+  </si>
+  <si>
+    <t>ELDER TEC S.R.L.</t>
+  </si>
+  <si>
+    <t>AV. CORDOBA</t>
+  </si>
+  <si>
+    <t>2360</t>
+  </si>
+  <si>
+    <t>0012554572</t>
+  </si>
+  <si>
+    <t>000000000002558557</t>
+  </si>
+  <si>
+    <t>1021</t>
+  </si>
+  <si>
+    <t>2558558</t>
   </si>
   <si>
     <t>Rendicion CCR - Puerto Madero</t>
@@ -348,295 +585,25 @@
     <t>365</t>
   </si>
   <si>
-    <t>Capital Federal</t>
-  </si>
-  <si>
-    <t>0012551935</t>
-  </si>
-  <si>
-    <t>000000000002555898</t>
+    <t>0012554577</t>
+  </si>
+  <si>
+    <t>000000000002558558</t>
   </si>
   <si>
     <t>1107</t>
   </si>
   <si>
-    <t>BUE</t>
-  </si>
-  <si>
-    <t>PENDIENTE DE DISTRIBUCION</t>
-  </si>
-  <si>
-    <t>2555901</t>
-  </si>
-  <si>
-    <t>0012551949</t>
-  </si>
-  <si>
-    <t>000000000002555901</t>
-  </si>
-  <si>
-    <t>2555942</t>
-  </si>
-  <si>
-    <t>0012551950</t>
-  </si>
-  <si>
-    <t>000000000002555942</t>
-  </si>
-  <si>
-    <t>2555943</t>
-  </si>
-  <si>
-    <t>0012551951</t>
-  </si>
-  <si>
-    <t>000000000002555943</t>
-  </si>
-  <si>
-    <t>2555944</t>
-  </si>
-  <si>
-    <t>0012551952</t>
-  </si>
-  <si>
-    <t>000000000002555944</t>
-  </si>
-  <si>
-    <t>2555945</t>
-  </si>
-  <si>
-    <t>0012551953</t>
-  </si>
-  <si>
-    <t>000000000002555945</t>
-  </si>
-  <si>
-    <t>2555946</t>
-  </si>
-  <si>
-    <t>0012551955</t>
-  </si>
-  <si>
-    <t>000000000002555946</t>
-  </si>
-  <si>
-    <t>2555947</t>
-  </si>
-  <si>
-    <t>0012551956</t>
-  </si>
-  <si>
-    <t>000000000002555947</t>
-  </si>
-  <si>
-    <t>2555948</t>
-  </si>
-  <si>
-    <t>0012551957</t>
-  </si>
-  <si>
-    <t>000000000002555948</t>
-  </si>
-  <si>
-    <t>2555949</t>
-  </si>
-  <si>
-    <t>SERVICIO NACIONAL DE SANIDAD Y CALI</t>
-  </si>
-  <si>
-    <t>AV. PASEO COLÓN</t>
-  </si>
-  <si>
-    <t>367</t>
-  </si>
-  <si>
-    <t>0012551961</t>
-  </si>
-  <si>
-    <t>000000000002555949</t>
-  </si>
-  <si>
-    <t>1063</t>
-  </si>
-  <si>
-    <t>2555950</t>
-  </si>
-  <si>
-    <t>LABORATORIO ELEA PHOENIX S A</t>
-  </si>
-  <si>
-    <t>AV. GRAL LEMOS</t>
-  </si>
-  <si>
-    <t>2809</t>
-  </si>
-  <si>
-    <t>0012551962</t>
-  </si>
-  <si>
-    <t>000000000002555950</t>
-  </si>
-  <si>
-    <t>1613</t>
-  </si>
-  <si>
-    <t>2555951</t>
-  </si>
-  <si>
-    <t>Rendiciones Biomakers</t>
-  </si>
-  <si>
-    <t>PUEYRREDON 1777 PISO 9</t>
-  </si>
-  <si>
-    <t>0012551964</t>
-  </si>
-  <si>
-    <t>000000000002555951</t>
-  </si>
-  <si>
-    <t>1119</t>
-  </si>
-  <si>
-    <t>2555962</t>
-  </si>
-  <si>
-    <t>RINDE ELI LILLY</t>
-  </si>
-  <si>
-    <t>TRONADOR 4890 P12°</t>
-  </si>
-  <si>
-    <t>0012551966</t>
-  </si>
-  <si>
-    <t>000000000002555962</t>
-  </si>
-  <si>
-    <t>1430</t>
-  </si>
-  <si>
-    <t>2555963</t>
-  </si>
-  <si>
-    <t>Rendicion Silmag</t>
-  </si>
-  <si>
-    <t>CORRIENTES 1820 1° D</t>
-  </si>
-  <si>
-    <t>0012551967</t>
-  </si>
-  <si>
-    <t>000000000002555963</t>
-  </si>
-  <si>
-    <t>1045</t>
-  </si>
-  <si>
-    <t>No responde al Llamado</t>
-  </si>
-  <si>
-    <t>PENDIENTE DE RENDICION</t>
-  </si>
-  <si>
-    <t>2555964</t>
-  </si>
-  <si>
-    <t>0012551970</t>
-  </si>
-  <si>
-    <t>000000000002555964</t>
-  </si>
-  <si>
-    <t>2555965</t>
-  </si>
-  <si>
-    <t>LANCASTER PHARMA S.A.</t>
-  </si>
-  <si>
-    <t>IRALA</t>
-  </si>
-  <si>
-    <t>1593</t>
-  </si>
-  <si>
-    <t>0012551972</t>
-  </si>
-  <si>
-    <t>000000000002555965</t>
-  </si>
-  <si>
-    <t>1164</t>
-  </si>
-  <si>
-    <t>2555966</t>
-  </si>
-  <si>
-    <t>Rendición Raffo Disp.Medico</t>
-  </si>
-  <si>
-    <t>AMARO AVALOS 2829, 3 PISO</t>
-  </si>
-  <si>
-    <t>0012551974</t>
-  </si>
-  <si>
-    <t>000000000002555966</t>
-  </si>
-  <si>
-    <t>1605</t>
-  </si>
-  <si>
-    <t>2555967</t>
-  </si>
-  <si>
-    <t>ELDER TEC S.R.L.</t>
-  </si>
-  <si>
-    <t>AV. CORDOBA</t>
-  </si>
-  <si>
-    <t>2360</t>
-  </si>
-  <si>
-    <t>0012551977</t>
-  </si>
-  <si>
-    <t>000000000002555967</t>
-  </si>
-  <si>
-    <t>1021</t>
-  </si>
-  <si>
-    <t>2555968</t>
-  </si>
-  <si>
-    <t>ABC S.A.</t>
-  </si>
-  <si>
-    <t>AV. GARAY 4132/8</t>
-  </si>
-  <si>
-    <t>0012551978</t>
-  </si>
-  <si>
-    <t>000000000002555968</t>
-  </si>
-  <si>
-    <t>1256</t>
-  </si>
-  <si>
-    <t>2555969</t>
-  </si>
-  <si>
-    <t>0012551979</t>
-  </si>
-  <si>
-    <t>000000000002555969</t>
-  </si>
-  <si>
-    <t>2555970</t>
+    <t>2558559</t>
+  </si>
+  <si>
+    <t>0012554578</t>
+  </si>
+  <si>
+    <t>000000000002558559</t>
+  </si>
+  <si>
+    <t>2558560</t>
   </si>
   <si>
     <t>Disprofarma S.A.</t>
@@ -648,34 +615,25 @@
     <t>3222</t>
   </si>
   <si>
-    <t>0012551980</t>
-  </si>
-  <si>
-    <t>000000000002555970</t>
+    <t>0012554583</t>
+  </si>
+  <si>
+    <t>000000000002558560</t>
   </si>
   <si>
     <t>1406</t>
   </si>
   <si>
-    <t>2555972</t>
-  </si>
-  <si>
-    <t>0012551982</t>
-  </si>
-  <si>
-    <t>000000000002555972</t>
-  </si>
-  <si>
-    <t>2555973</t>
-  </si>
-  <si>
-    <t>0012551983</t>
-  </si>
-  <si>
-    <t>000000000002555973</t>
-  </si>
-  <si>
-    <t>2555975</t>
+    <t>2558561</t>
+  </si>
+  <si>
+    <t>0012554584</t>
+  </si>
+  <si>
+    <t>000000000002558561</t>
+  </si>
+  <si>
+    <t>2558582</t>
   </si>
   <si>
     <t>BIOMERI.Olivos Building II</t>
@@ -684,16 +642,25 @@
     <t>NICOLAS REPETTO 3676 PISO 7</t>
   </si>
   <si>
-    <t>0012551985</t>
-  </si>
-  <si>
-    <t>000000000002555975</t>
+    <t>0012554587</t>
+  </si>
+  <si>
+    <t>000000000002558582</t>
   </si>
   <si>
     <t>1636</t>
   </si>
   <si>
-    <t>2555977</t>
+    <t>2558583</t>
+  </si>
+  <si>
+    <t>0012554588</t>
+  </si>
+  <si>
+    <t>000000000002558583</t>
+  </si>
+  <si>
+    <t>2558584</t>
   </si>
   <si>
     <t>WAREHOUSE SALUD PLANTA IRIARTE</t>
@@ -702,58 +669,64 @@
     <t>IRIARTE 3070</t>
   </si>
   <si>
-    <t>0012551989</t>
-  </si>
-  <si>
-    <t>000000000002555977</t>
+    <t>0012554593</t>
+  </si>
+  <si>
+    <t>000000000002558584</t>
   </si>
   <si>
     <t>1291</t>
   </si>
   <si>
-    <t>2555978</t>
-  </si>
-  <si>
-    <t>0012551990</t>
-  </si>
-  <si>
-    <t>000000000002555978</t>
-  </si>
-  <si>
-    <t>1229212477</t>
-  </si>
-  <si>
-    <t>Clínica Independencia s.a.</t>
-  </si>
-  <si>
-    <t>LUIS MARÍA DRAGO 5681</t>
-  </si>
-  <si>
-    <t>MUNRO</t>
+    <t>2558585</t>
+  </si>
+  <si>
+    <t>0012554595</t>
+  </si>
+  <si>
+    <t>000000000002558585</t>
+  </si>
+  <si>
+    <t>2558586</t>
+  </si>
+  <si>
+    <t>0012554596</t>
+  </si>
+  <si>
+    <t>000000000002558586</t>
+  </si>
+  <si>
+    <t>1229316456</t>
+  </si>
+  <si>
+    <t>Htal. Samic Garrahan</t>
+  </si>
+  <si>
+    <t>PICHINCHA 1890</t>
+  </si>
+  <si>
+    <t>CAPITAL FEDERAL</t>
   </si>
   <si>
     <t>BIOMERIEUX ARGENTINA S.A.</t>
   </si>
   <si>
-    <t>-34.5394</t>
-  </si>
-  <si>
-    <t>-58.53326</t>
-  </si>
-  <si>
-    <t>8023792517</t>
-  </si>
-  <si>
-    <t>00000000004011458277</t>
-  </si>
-  <si>
-    <t>000000001229212477</t>
+    <t>8023799381</t>
+  </si>
+  <si>
+    <t>00000000004011466596</t>
+  </si>
+  <si>
+    <t>000000001229316456</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
-    <t>20251119</t>
+    <t>1249</t>
+  </si>
+  <si>
+    <t>20251121</t>
   </si>
   <si>
     <t>Distribución de medicamentos Urgente</t>
@@ -762,28 +735,97 @@
     <t>Dist. medicamentos, insum. y Tec. médica</t>
   </si>
   <si>
+    <t>1229320120</t>
+  </si>
+  <si>
+    <t>INSTITUTO QUIRURGICO DEL CALLAO</t>
+  </si>
+  <si>
+    <t>LAVALLE 1790</t>
+  </si>
+  <si>
+    <t>-34.60321</t>
+  </si>
+  <si>
+    <t>-58.39214</t>
+  </si>
+  <si>
+    <t>8023799387</t>
+  </si>
+  <si>
+    <t>000000001229320120</t>
+  </si>
+  <si>
+    <t>1048</t>
+  </si>
+  <si>
     <t>HERE</t>
   </si>
   <si>
     <t>ROOFTOP</t>
   </si>
   <si>
-    <t>1229212533</t>
-  </si>
-  <si>
-    <t>Htal. San Juan de Dios</t>
-  </si>
-  <si>
-    <t>CALLE 27 ENTRE 69 Y 70</t>
+    <t>1229320406</t>
+  </si>
+  <si>
+    <t>Htal.M.I.Sardá</t>
+  </si>
+  <si>
+    <t>ESTEBAN DE LUCA 2151</t>
+  </si>
+  <si>
+    <t>-34.634813</t>
+  </si>
+  <si>
+    <t>-58.402651</t>
+  </si>
+  <si>
+    <t>8023799368</t>
+  </si>
+  <si>
+    <t>000000001229320406</t>
+  </si>
+  <si>
+    <t>1246</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>1229320408</t>
+  </si>
+  <si>
+    <t>Suizo Argentina</t>
+  </si>
+  <si>
+    <t>CATAMARCA 1242, 1 PISO</t>
+  </si>
+  <si>
+    <t>8023799365</t>
+  </si>
+  <si>
+    <t>000000001229320408</t>
+  </si>
+  <si>
+    <t>1425</t>
+  </si>
+  <si>
+    <t>1229320409</t>
+  </si>
+  <si>
+    <t>Grupo Sur</t>
+  </si>
+  <si>
+    <t>CALLE 51 N°315</t>
   </si>
   <si>
     <t>PROVINCIA DE BUENOS AIRES</t>
   </si>
   <si>
-    <t>8023792516</t>
-  </si>
-  <si>
-    <t>000000001229212533</t>
+    <t>8023799379</t>
+  </si>
+  <si>
+    <t>000000001229320409</t>
   </si>
   <si>
     <t>1900</t>
@@ -792,115 +834,265 @@
     <t>LPG</t>
   </si>
   <si>
-    <t>PENDIENTE DE DISTRIBUCION EN CONTENEDOR</t>
-  </si>
-  <si>
-    <t>1229241303</t>
-  </si>
-  <si>
-    <t>TAKEDA ARG - OLIVOS CENTER</t>
-  </si>
-  <si>
-    <t>DOMINGO DE ACASSUSO 3780/90</t>
-  </si>
-  <si>
-    <t>OLIVOS</t>
+    <t>1229320762</t>
+  </si>
+  <si>
+    <t>Mastellone Hnos.</t>
+  </si>
+  <si>
+    <t>ALMIRANTE BROWN 957</t>
+  </si>
+  <si>
+    <t>8023799390</t>
+  </si>
+  <si>
+    <t>000000001229320762</t>
+  </si>
+  <si>
+    <t>1748</t>
+  </si>
+  <si>
+    <t>GBAO</t>
+  </si>
+  <si>
+    <t>1229320764</t>
+  </si>
+  <si>
+    <t>Htal.Z.G.LyM.de la Vega</t>
+  </si>
+  <si>
+    <t>AVDA. DEL LIBERTADOR 710</t>
+  </si>
+  <si>
+    <t>8023799650</t>
+  </si>
+  <si>
+    <t>000000001229320764</t>
+  </si>
+  <si>
+    <t>1744</t>
+  </si>
+  <si>
+    <t>1229323384</t>
+  </si>
+  <si>
+    <t>Htal. Z. G.A.San Roque</t>
+  </si>
+  <si>
+    <t>CALLE 508 E/ 18 Y 19</t>
+  </si>
+  <si>
+    <t>MANUEL B GONNET</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>8023799385</t>
+  </si>
+  <si>
+    <t>000000001229323384</t>
+  </si>
+  <si>
+    <t>1897</t>
+  </si>
+  <si>
+    <t>1229323521</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>8023793822</t>
-  </si>
-  <si>
-    <t>000000001229241303</t>
-  </si>
-  <si>
-    <t>1229241309</t>
-  </si>
-  <si>
-    <t>Química Erovne s.a. Industria</t>
-  </si>
-  <si>
-    <t>AV. CÓRDOBA 2552</t>
-  </si>
-  <si>
-    <t>CAPITAL FEDERAL</t>
-  </si>
-  <si>
-    <t>-34.59881782</t>
-  </si>
-  <si>
-    <t>-58.40320724</t>
-  </si>
-  <si>
-    <t>8023793832</t>
-  </si>
-  <si>
-    <t>000000001229241309</t>
-  </si>
-  <si>
-    <t>1120</t>
-  </si>
-  <si>
-    <t>RETIRO DE WH POR PARTE DEL CLIENTE</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>1229241421</t>
-  </si>
-  <si>
-    <t>8023793833</t>
-  </si>
-  <si>
-    <t>000000001229241421</t>
-  </si>
-  <si>
-    <t>1229241554</t>
-  </si>
-  <si>
-    <t>8023793004</t>
-  </si>
-  <si>
-    <t>000000001229241554</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Claudia/Gabriela</t>
-  </si>
-  <si>
-    <t>1229241555</t>
-  </si>
-  <si>
-    <t>8023793837</t>
-  </si>
-  <si>
-    <t>000000001229241555</t>
-  </si>
-  <si>
-    <t>1229276651</t>
-  </si>
-  <si>
-    <t>Mastellone Hnos.</t>
-  </si>
-  <si>
-    <t>ALMIRANTE BROWN 957</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>8023799356</t>
-  </si>
-  <si>
-    <t>000000001229276651</t>
-  </si>
-  <si>
-    <t>1748</t>
-  </si>
-  <si>
-    <t>GBAO</t>
+    <t>8023799389</t>
+  </si>
+  <si>
+    <t>000000001229323521</t>
+  </si>
+  <si>
+    <t>1229323530</t>
+  </si>
+  <si>
+    <t>WADE S.A</t>
+  </si>
+  <si>
+    <t>ESTANCIA LOS REMEDIO 2701</t>
+  </si>
+  <si>
+    <t>MONTE GRANDE</t>
+  </si>
+  <si>
+    <t>8023799375</t>
+  </si>
+  <si>
+    <t>000000001229323530</t>
+  </si>
+  <si>
+    <t>1842</t>
+  </si>
+  <si>
+    <t>GBAS</t>
+  </si>
+  <si>
+    <t>1229323887</t>
+  </si>
+  <si>
+    <t>Htal.I.G.A.Sor Ludovica</t>
+  </si>
+  <si>
+    <t>CALLE 14 NRO. 1631</t>
+  </si>
+  <si>
+    <t>8023799369</t>
+  </si>
+  <si>
+    <t>000000001229323887</t>
+  </si>
+  <si>
+    <t>1229324168</t>
+  </si>
+  <si>
+    <t>CPN SA</t>
+  </si>
+  <si>
+    <t>DÍAZ VÉLEZ 4363</t>
+  </si>
+  <si>
+    <t>8023799593</t>
+  </si>
+  <si>
+    <t>000000001229324168</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>1229324574</t>
+  </si>
+  <si>
+    <t>PONTEVEDRA</t>
+  </si>
+  <si>
+    <t>AV OTERO 5250 EX RUTA 21 KM 23,5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>8023799647</t>
+  </si>
+  <si>
+    <t>000000001229324574</t>
+  </si>
+  <si>
+    <t>1761</t>
+  </si>
+  <si>
+    <t>1229324578</t>
+  </si>
+  <si>
+    <t>PROANALISIS SA</t>
+  </si>
+  <si>
+    <t>AV. SAN MARTÍN 2355</t>
+  </si>
+  <si>
+    <t>BELLA VISTA</t>
+  </si>
+  <si>
+    <t>8023799377</t>
+  </si>
+  <si>
+    <t>000000001229324578</t>
+  </si>
+  <si>
+    <t>1661</t>
+  </si>
+  <si>
+    <t>1229324762</t>
+  </si>
+  <si>
+    <t>Bayer</t>
+  </si>
+  <si>
+    <t>CALLE 8 -ENTRE 3 Y 5</t>
+  </si>
+  <si>
+    <t>8023799646</t>
+  </si>
+  <si>
+    <t>000000001229324762</t>
+  </si>
+  <si>
+    <t>1629</t>
+  </si>
+  <si>
+    <t>1229325061</t>
+  </si>
+  <si>
+    <t>Fund. Favaloro p/la Docen.e Inv</t>
+  </si>
+  <si>
+    <t>VENEZUELA 1749</t>
+  </si>
+  <si>
+    <t>8023799384</t>
+  </si>
+  <si>
+    <t>000000001229325061</t>
+  </si>
+  <si>
+    <t>1093</t>
+  </si>
+  <si>
+    <t>1229325068</t>
+  </si>
+  <si>
+    <t>Asoc. Civil de Est. Superiores</t>
+  </si>
+  <si>
+    <t>AVDA. PTE. PERÓN 1500</t>
+  </si>
+  <si>
+    <t>8023799364</t>
+  </si>
+  <si>
+    <t>000000001229325068</t>
+  </si>
+  <si>
+    <t>1635</t>
+  </si>
+  <si>
+    <t>1229325259</t>
+  </si>
+  <si>
+    <t>Granja-Molinos Rio de la Plata</t>
+  </si>
+  <si>
+    <t>RUTA 8 KM 57.5</t>
+  </si>
+  <si>
+    <t>8023799648</t>
+  </si>
+  <si>
+    <t>000000001229325259</t>
+  </si>
+  <si>
+    <t>1229325448</t>
+  </si>
+  <si>
+    <t>MABXIENCE S.A.U.</t>
+  </si>
+  <si>
+    <t>JOSÉ ZABALA 1040</t>
+  </si>
+  <si>
+    <t>8023799366</t>
+  </si>
+  <si>
+    <t>000000001229325448</t>
+  </si>
+  <si>
+    <t>1619</t>
   </si>
 </sst>
 </file>
@@ -1773,8 +1965,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C96CED7-F836-40E6-A100-6BF49B19C9DB}">
-  <dimension ref="A1:AX46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A84027F-0AAC-491D-8954-7C85F6676F75}">
+  <dimension ref="A1:AX58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1784,7 +1976,7 @@
   <cols>
     <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
@@ -1802,7 +1994,7 @@
     <col min="18" max="18" width="27.1796875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="10" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17.90625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="30.90625" bestFit="1" customWidth="1"/>
@@ -1814,12 +2006,12 @@
     <col min="31" max="31" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="6.90625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="5.08984375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="37.453125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="11.81640625" bestFit="1" customWidth="1"/>
@@ -2060,17 +2252,15 @@
       </c>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
-      <c r="AM2" s="1" t="s">
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1"/>
@@ -2085,7 +2275,7 @@
     </row>
     <row r="3" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>51</v>
@@ -2133,7 +2323,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>60</v>
@@ -2141,7 +2331,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -2158,17 +2348,15 @@
       </c>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
-      <c r="AM3" s="1" t="s">
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
@@ -2183,7 +2371,7 @@
     </row>
     <row r="4" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>51</v>
@@ -2231,7 +2419,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>60</v>
@@ -2239,7 +2427,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -2256,17 +2444,15 @@
       </c>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
-      <c r="AM4" s="1" t="s">
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AN4" s="1" t="s">
+      <c r="AO4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AP4" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
@@ -2281,7 +2467,7 @@
     </row>
     <row r="5" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>51</v>
@@ -2329,7 +2515,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>60</v>
@@ -2337,7 +2523,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -2354,17 +2540,15 @@
       </c>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
-      <c r="AM5" s="1" t="s">
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AN5" s="1" t="s">
+      <c r="AO5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO5" s="1" t="s">
+      <c r="AP5" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
@@ -2379,7 +2563,7 @@
     </row>
     <row r="6" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>51</v>
@@ -2427,7 +2611,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>60</v>
@@ -2435,7 +2619,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
@@ -2452,17 +2636,15 @@
       </c>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
-      <c r="AM6" s="1" t="s">
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AN6" s="1" t="s">
+      <c r="AO6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO6" s="1" t="s">
+      <c r="AP6" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
@@ -2477,7 +2659,7 @@
     </row>
     <row r="7" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>51</v>
@@ -2525,7 +2707,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>60</v>
@@ -2533,7 +2715,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -2550,17 +2732,15 @@
       </c>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
-      <c r="AM7" s="1" t="s">
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AN7" s="1" t="s">
+      <c r="AO7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO7" s="1" t="s">
+      <c r="AP7" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
@@ -2575,7 +2755,7 @@
     </row>
     <row r="8" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>51</v>
@@ -2623,7 +2803,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>60</v>
@@ -2631,7 +2811,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
@@ -2648,17 +2828,15 @@
       </c>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
-      <c r="AM8" s="1" t="s">
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AN8" s="1" t="s">
+      <c r="AO8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AP8" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AQ8" s="1"/>
       <c r="AR8" s="1"/>
@@ -2673,16 +2851,16 @@
     </row>
     <row r="9" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2721,21 +2899,21 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1" t="s">
@@ -2746,17 +2924,15 @@
       </c>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
-      <c r="AM9" s="1" t="s">
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AN9" s="1" t="s">
+      <c r="AO9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO9" s="1" t="s">
+      <c r="AP9" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
@@ -2771,16 +2947,16 @@
     </row>
     <row r="10" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2819,21 +2995,21 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1" t="s">
@@ -2844,17 +3020,15 @@
       </c>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
-      <c r="AM10" s="1" t="s">
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AN10" s="1" t="s">
+      <c r="AO10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO10" s="1" t="s">
+      <c r="AP10" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AP10" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
@@ -2869,16 +3043,16 @@
     </row>
     <row r="11" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2917,21 +3091,21 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1" t="s">
@@ -2942,17 +3116,15 @@
       </c>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
-      <c r="AM11" s="1" t="s">
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AN11" s="1" t="s">
+      <c r="AO11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO11" s="1" t="s">
+      <c r="AP11" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AP11" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
@@ -2967,16 +3139,16 @@
     </row>
     <row r="12" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -3015,21 +3187,21 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1" t="s">
@@ -3040,17 +3212,15 @@
       </c>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
-      <c r="AM12" s="1" t="s">
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AN12" s="1" t="s">
+      <c r="AO12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO12" s="1" t="s">
+      <c r="AP12" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AP12" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
@@ -3065,21 +3235,21 @@
     </row>
     <row r="13" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
@@ -3113,21 +3283,21 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1" t="s">
@@ -3140,13 +3310,13 @@
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
@@ -3161,16 +3331,16 @@
     </row>
     <row r="14" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -3209,21 +3379,21 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1" t="s">
@@ -3234,17 +3404,15 @@
       </c>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
-      <c r="AM14" s="1" t="s">
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AN14" s="1" t="s">
+      <c r="AO14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO14" s="1" t="s">
+      <c r="AP14" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AP14" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
@@ -3259,16 +3427,16 @@
     </row>
     <row r="15" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -3307,21 +3475,21 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1" t="s">
@@ -3332,17 +3500,15 @@
       </c>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
-      <c r="AM15" s="1" t="s">
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AN15" s="1" t="s">
+      <c r="AO15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO15" s="1" t="s">
+      <c r="AP15" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AP15" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
@@ -3357,16 +3523,16 @@
     </row>
     <row r="16" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -3405,21 +3571,21 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1" t="s">
@@ -3430,17 +3596,15 @@
       </c>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
-      <c r="AM16" s="1" t="s">
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AN16" s="1" t="s">
+      <c r="AO16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO16" s="1" t="s">
+      <c r="AP16" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AP16" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AQ16" s="1"/>
       <c r="AR16" s="1"/>
@@ -3455,16 +3619,16 @@
     </row>
     <row r="17" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -3503,21 +3667,21 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1" t="s">
@@ -3528,17 +3692,15 @@
       </c>
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
-      <c r="AM17" s="1" t="s">
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AN17" s="1" t="s">
+      <c r="AO17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO17" s="1" t="s">
+      <c r="AP17" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AP17" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AQ17" s="1"/>
       <c r="AR17" s="1"/>
@@ -3553,16 +3715,16 @@
     </row>
     <row r="18" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3601,21 +3763,21 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1" t="s">
@@ -3626,17 +3788,15 @@
       </c>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
-      <c r="AM18" s="1" t="s">
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AN18" s="1" t="s">
+      <c r="AO18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO18" s="1" t="s">
+      <c r="AP18" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AP18" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AQ18" s="1"/>
       <c r="AR18" s="1"/>
@@ -3651,16 +3811,16 @@
     </row>
     <row r="19" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -3699,21 +3859,21 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1" t="s">
@@ -3724,17 +3884,15 @@
       </c>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
-      <c r="AM19" s="1" t="s">
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AN19" s="1" t="s">
+      <c r="AO19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO19" s="1" t="s">
+      <c r="AP19" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AP19" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1"/>
@@ -3749,16 +3907,16 @@
     </row>
     <row r="20" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -3797,21 +3955,21 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1" t="s">
@@ -3822,17 +3980,15 @@
       </c>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
-      <c r="AM20" s="1" t="s">
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AN20" s="1" t="s">
+      <c r="AO20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO20" s="1" t="s">
+      <c r="AP20" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AP20" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
@@ -3847,16 +4003,16 @@
     </row>
     <row r="21" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -3895,21 +4051,21 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1" t="s">
@@ -3920,17 +4076,15 @@
       </c>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
-      <c r="AM21" s="1" t="s">
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AN21" s="1" t="s">
+      <c r="AO21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO21" s="1" t="s">
+      <c r="AP21" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AP21" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
@@ -3945,21 +4099,21 @@
     </row>
     <row r="22" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
@@ -3993,21 +4147,21 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1" t="s">
@@ -4020,13 +4174,13 @@
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="AO22" s="1" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="AP22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>
@@ -4041,16 +4195,16 @@
     </row>
     <row r="23" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -4089,21 +4243,21 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1" t="s">
@@ -4116,13 +4270,13 @@
       <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO23" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="AP23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1"/>
@@ -4137,21 +4291,21 @@
     </row>
     <row r="24" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
@@ -4185,21 +4339,21 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1" t="s">
@@ -4212,13 +4366,13 @@
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
       <c r="AN24" s="1" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="AO24" s="1" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="AP24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ24" s="1"/>
       <c r="AR24" s="1"/>
@@ -4233,13 +4387,13 @@
     </row>
     <row r="25" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>53</v>
@@ -4247,7 +4401,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
@@ -4281,21 +4435,21 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1" t="s">
@@ -4308,13 +4462,13 @@
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
       <c r="AN25" s="1" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="AO25" s="1" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ25" s="1"/>
       <c r="AR25" s="1"/>
@@ -4329,13 +4483,13 @@
     </row>
     <row r="26" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>53</v>
@@ -4343,7 +4497,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
@@ -4377,21 +4531,21 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1" t="s">
@@ -4402,17 +4556,15 @@
       </c>
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
-      <c r="AM26" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="AM26" s="1"/>
       <c r="AN26" s="1" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="AO26" s="1" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="AP26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ26" s="1"/>
       <c r="AR26" s="1"/>
@@ -4427,13 +4579,13 @@
     </row>
     <row r="27" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>53</v>
@@ -4441,7 +4593,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
@@ -4475,21 +4627,21 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1" t="s">
@@ -4500,17 +4652,15 @@
       </c>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
-      <c r="AM27" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="AM27" s="1"/>
       <c r="AN27" s="1" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="AP27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ27" s="1"/>
       <c r="AR27" s="1"/>
@@ -4525,21 +4675,21 @@
     </row>
     <row r="28" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
@@ -4573,21 +4723,21 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1" t="s">
@@ -4598,17 +4748,15 @@
       </c>
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
-      <c r="AM28" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="AM28" s="1"/>
       <c r="AN28" s="1" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="AO28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP28" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AP28" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AQ28" s="1"/>
       <c r="AR28" s="1"/>
@@ -4623,13 +4771,13 @@
     </row>
     <row r="29" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>53</v>
@@ -4637,7 +4785,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
@@ -4671,21 +4819,21 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1" t="s">
@@ -4696,17 +4844,15 @@
       </c>
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
-      <c r="AM29" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="AM29" s="1"/>
       <c r="AN29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO29" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="AP29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ29" s="1"/>
       <c r="AR29" s="1"/>
@@ -4721,21 +4867,21 @@
     </row>
     <row r="30" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
@@ -4769,21 +4915,21 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1" t="s">
@@ -4796,13 +4942,13 @@
       <c r="AL30" s="1"/>
       <c r="AM30" s="1"/>
       <c r="AN30" s="1" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="AO30" s="1" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="AP30" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ30" s="1"/>
       <c r="AR30" s="1"/>
@@ -4817,21 +4963,21 @@
     </row>
     <row r="31" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
@@ -4865,21 +5011,21 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1" t="s">
@@ -4890,17 +5036,15 @@
       </c>
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
-      <c r="AM31" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="AM31" s="1"/>
       <c r="AN31" s="1" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="AO31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP31" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AP31" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AQ31" s="1"/>
       <c r="AR31" s="1"/>
@@ -4915,21 +5059,21 @@
     </row>
     <row r="32" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
@@ -4963,21 +5107,21 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1" t="s">
@@ -4988,17 +5132,15 @@
       </c>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
-      <c r="AM32" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="AM32" s="1"/>
       <c r="AN32" s="1" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="AO32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP32" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AP32" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
@@ -5013,21 +5155,21 @@
     </row>
     <row r="33" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
@@ -5061,21 +5203,21 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1" t="s">
@@ -5086,17 +5228,15 @@
       </c>
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
-      <c r="AM33" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="AM33" s="1"/>
       <c r="AN33" s="1" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="AO33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP33" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AP33" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
@@ -5111,21 +5251,21 @@
     </row>
     <row r="34" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>105</v>
+        <v>194</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
@@ -5159,21 +5299,21 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1" t="s">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1" t="s">
@@ -5186,13 +5326,13 @@
       <c r="AL34" s="1"/>
       <c r="AM34" s="1"/>
       <c r="AN34" s="1" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="AO34" s="1" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="AP34" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
@@ -5207,21 +5347,21 @@
     </row>
     <row r="35" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
@@ -5255,21 +5395,21 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
       <c r="AG35" s="1" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1" t="s">
@@ -5282,13 +5422,13 @@
       <c r="AL35" s="1"/>
       <c r="AM35" s="1"/>
       <c r="AN35" s="1" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="AO35" s="1" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="AP35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
@@ -5303,13 +5443,13 @@
     </row>
     <row r="36" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>53</v>
@@ -5351,21 +5491,21 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="AH36" s="1"/>
       <c r="AI36" s="1" t="s">
@@ -5376,17 +5516,15 @@
       </c>
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
-      <c r="AM36" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="AM36" s="1"/>
       <c r="AN36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO36" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="AP36" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
@@ -5401,13 +5539,13 @@
     </row>
     <row r="37" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>53</v>
@@ -5415,7 +5553,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
@@ -5449,21 +5587,21 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1" t="s">
@@ -5476,13 +5614,13 @@
       <c r="AL37" s="1"/>
       <c r="AM37" s="1"/>
       <c r="AN37" s="1" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="AO37" s="1" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="AP37" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
@@ -5497,13 +5635,13 @@
     </row>
     <row r="38" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>53</v>
@@ -5511,7 +5649,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
@@ -5545,21 +5683,21 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
       <c r="AF38" s="1"/>
       <c r="AG38" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1" t="s">
@@ -5572,13 +5710,13 @@
       <c r="AL38" s="1"/>
       <c r="AM38" s="1"/>
       <c r="AN38" s="1" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="AO38" s="1" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="AP38" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
@@ -5593,21 +5731,21 @@
     </row>
     <row r="39" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1" t="s">
-        <v>235</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
@@ -5622,75 +5760,61 @@
         <v>57</v>
       </c>
       <c r="N39" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="O39" s="3">
-        <v>9.41</v>
+        <v>0</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q39" s="1"/>
-      <c r="R39" s="1" t="s">
-        <v>236</v>
-      </c>
+      <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="4">
         <v>0</v>
       </c>
-      <c r="U39" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="V39" s="1" t="s">
-        <v>238</v>
-      </c>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>240</v>
+        <v>94</v>
       </c>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="AD39" s="1"/>
-      <c r="AE39" s="1" t="s">
-        <v>242</v>
-      </c>
+      <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AJ39" s="1" t="s">
-        <v>243</v>
+        <v>64</v>
       </c>
       <c r="AK39" s="1"/>
-      <c r="AL39" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AM39" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
       <c r="AN39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO39" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO39" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="AP39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ39" s="1" t="s">
-        <v>245</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
       <c r="AS39" s="1" t="s">
         <v>53</v>
@@ -5698,30 +5822,26 @@
       <c r="AT39" s="1"/>
       <c r="AU39" s="1"/>
       <c r="AV39" s="1"/>
-      <c r="AW39" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AX39" s="1" t="s">
-        <v>247</v>
-      </c>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
     </row>
     <row r="40" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
@@ -5736,17 +5856,17 @@
         <v>57</v>
       </c>
       <c r="N40" s="3">
-        <v>7.0999999999999994E-2</v>
+        <v>0.81</v>
       </c>
       <c r="O40" s="3">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="4">
@@ -5757,49 +5877,47 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AJ40" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="AK40" s="1"/>
       <c r="AL40" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AM40" s="1" t="s">
-        <v>170</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AM40" s="1"/>
       <c r="AN40" s="1" t="s">
-        <v>255</v>
+        <v>138</v>
       </c>
       <c r="AO40" s="1" t="s">
-        <v>256</v>
+        <v>66</v>
       </c>
       <c r="AP40" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ40" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AR40" s="1"/>
       <c r="AS40" s="1" t="s">
@@ -5813,21 +5931,21 @@
     </row>
     <row r="41" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
@@ -5842,70 +5960,72 @@
         <v>57</v>
       </c>
       <c r="N41" s="3">
-        <v>3.2000000000000001E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="O41" s="3">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>261</v>
+        <v>58</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="4">
         <v>0</v>
       </c>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
+      <c r="U41" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="AF41" s="1"/>
       <c r="AG41" s="1" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AJ41" s="1" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="AK41" s="1"/>
       <c r="AL41" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AM41" s="1" t="s">
-        <v>170</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AM41" s="1"/>
       <c r="AN41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO41" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO41" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="AP41" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ41" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AR41" s="1"/>
       <c r="AS41" s="1" t="s">
@@ -5914,26 +6034,30 @@
       <c r="AT41" s="1"/>
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
-      <c r="AW41" s="1"/>
-      <c r="AX41" s="1"/>
+      <c r="AW41" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AX41" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="42" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
@@ -5948,74 +6072,72 @@
         <v>57</v>
       </c>
       <c r="N42" s="3">
-        <v>1.6E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="O42" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="4">
         <v>0</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="AF42" s="1"/>
       <c r="AG42" s="1" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AJ42" s="1" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="AK42" s="1"/>
       <c r="AL42" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM42" s="1" t="s">
-        <v>170</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AM42" s="1"/>
       <c r="AN42" s="1" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="AO42" s="1" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="AP42" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ42" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AR42" s="1"/>
       <c r="AS42" s="1" t="s">
@@ -6023,7 +6145,7 @@
       </c>
       <c r="AT42" s="1"/>
       <c r="AU42" s="1" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="AV42" s="1"/>
       <c r="AW42" s="1"/>
@@ -6031,21 +6153,21 @@
     </row>
     <row r="43" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
@@ -6060,100 +6182,92 @@
         <v>57</v>
       </c>
       <c r="N43" s="3">
-        <v>1.6E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="O43" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="4">
         <v>0</v>
       </c>
-      <c r="U43" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="V43" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="AF43" s="1"/>
       <c r="AG43" s="1" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="AH43" s="1"/>
       <c r="AI43" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AJ43" s="1" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="AK43" s="1"/>
       <c r="AL43" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM43" s="1" t="s">
-        <v>170</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AM43" s="1"/>
       <c r="AN43" s="1" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="AO43" s="1" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="AP43" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ43" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AR43" s="1"/>
       <c r="AS43" s="1" t="s">
         <v>53</v>
       </c>
       <c r="AT43" s="1"/>
-      <c r="AU43" s="1" t="s">
-        <v>274</v>
-      </c>
+      <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
       <c r="AW43" s="1"/>
       <c r="AX43" s="1"/>
     </row>
     <row r="44" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
@@ -6172,7 +6286,7 @@
         <v>57</v>
       </c>
       <c r="N44" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="O44" s="3">
         <v>5</v>
@@ -6182,66 +6296,58 @@
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="4">
         <v>0</v>
       </c>
-      <c r="U44" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>238</v>
-      </c>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="Z44" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="AF44" s="1"/>
       <c r="AG44" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH44" s="1" t="s">
-        <v>281</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="AH44" s="1"/>
       <c r="AI44" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AJ44" s="1" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="AK44" s="1"/>
       <c r="AL44" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AM44" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AM44" s="1"/>
       <c r="AN44" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AO44" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AO44" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="AP44" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ44" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AR44" s="1"/>
       <c r="AS44" s="1" t="s">
@@ -6250,30 +6356,26 @@
       <c r="AT44" s="1"/>
       <c r="AU44" s="1"/>
       <c r="AV44" s="1"/>
-      <c r="AW44" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AX44" s="1" t="s">
-        <v>247</v>
-      </c>
+      <c r="AW44" s="1"/>
+      <c r="AX44" s="1"/>
     </row>
     <row r="45" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1" t="s">
@@ -6291,97 +6393,89 @@
         <v>1.6E-2</v>
       </c>
       <c r="O45" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="4">
         <v>0</v>
       </c>
-      <c r="U45" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="V45" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="Z45" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="AF45" s="1"/>
       <c r="AG45" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AJ45" s="1" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="AK45" s="1"/>
       <c r="AL45" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM45" s="1" t="s">
-        <v>170</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AM45" s="1"/>
       <c r="AN45" s="1" t="s">
-        <v>112</v>
+        <v>276</v>
       </c>
       <c r="AO45" s="1" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="AP45" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ45" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AR45" s="1"/>
       <c r="AS45" s="1" t="s">
         <v>53</v>
       </c>
       <c r="AT45" s="1"/>
-      <c r="AU45" s="1" t="s">
-        <v>274</v>
-      </c>
+      <c r="AU45" s="1"/>
       <c r="AV45" s="1"/>
       <c r="AW45" s="1"/>
       <c r="AX45" s="1"/>
     </row>
     <row r="46" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
@@ -6400,17 +6494,17 @@
         <v>57</v>
       </c>
       <c r="N46" s="3">
-        <v>0.42</v>
+        <v>1.6E-2</v>
       </c>
       <c r="O46" s="3">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>288</v>
+        <v>58</v>
       </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="4">
@@ -6421,49 +6515,47 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="AF46" s="1"/>
       <c r="AG46" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="AH46" s="1"/>
       <c r="AI46" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AJ46" s="1" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="AK46" s="1"/>
       <c r="AL46" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AM46" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AM46" s="1"/>
       <c r="AN46" s="1" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="AO46" s="1" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="AP46" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ46" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AR46" s="1"/>
       <c r="AS46" s="1" t="s">
@@ -6474,6 +6566,1254 @@
       <c r="AV46" s="1"/>
       <c r="AW46" s="1"/>
       <c r="AX46" s="1"/>
+    </row>
+    <row r="47" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="O47" s="3">
+        <v>155.9</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="S47" s="1"/>
+      <c r="T47" s="4">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z47" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ47" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AO47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ47" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT47" s="1"/>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="1"/>
+      <c r="AX47" s="1"/>
+    </row>
+    <row r="48" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="O48" s="3">
+        <v>20</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="S48" s="1"/>
+      <c r="T48" s="4">
+        <v>0</v>
+      </c>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z48" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ48" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AO48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ48" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT48" s="1"/>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="1"/>
+      <c r="AX48" s="1"/>
+    </row>
+    <row r="49" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0.161</v>
+      </c>
+      <c r="O49" s="3">
+        <v>26</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="S49" s="1"/>
+      <c r="T49" s="4">
+        <v>0</v>
+      </c>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z49" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ49" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AO49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ49" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT49" s="1"/>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="1"/>
+      <c r="AX49" s="1"/>
+    </row>
+    <row r="50" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0.109</v>
+      </c>
+      <c r="O50" s="3">
+        <v>15</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="S50" s="1"/>
+      <c r="T50" s="4">
+        <v>0</v>
+      </c>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z50" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ50" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AO50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ50" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR50" s="1"/>
+      <c r="AS50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT50" s="1"/>
+      <c r="AU50" s="1"/>
+      <c r="AV50" s="1"/>
+      <c r="AW50" s="1"/>
+      <c r="AX50" s="1"/>
+    </row>
+    <row r="51" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="O51" s="3">
+        <v>16</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="S51" s="1"/>
+      <c r="T51" s="4">
+        <v>0</v>
+      </c>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z51" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ51" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ51" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT51" s="1"/>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="1"/>
+      <c r="AX51" s="1"/>
+    </row>
+    <row r="52" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="O52" s="3">
+        <v>46</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="S52" s="1"/>
+      <c r="T52" s="4">
+        <v>0</v>
+      </c>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z52" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ52" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AO52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ52" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT52" s="1"/>
+      <c r="AU52" s="1"/>
+      <c r="AV52" s="1"/>
+      <c r="AW52" s="1"/>
+      <c r="AX52" s="1"/>
+    </row>
+    <row r="53" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N53" s="3">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="O53" s="3">
+        <v>13</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="S53" s="1"/>
+      <c r="T53" s="4">
+        <v>0</v>
+      </c>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z53" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ53" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM53" s="1"/>
+      <c r="AN53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ53" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT53" s="1"/>
+      <c r="AU53" s="1"/>
+      <c r="AV53" s="1"/>
+      <c r="AW53" s="1"/>
+      <c r="AX53" s="1"/>
+    </row>
+    <row r="54" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N54" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="O54" s="3">
+        <v>5</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="S54" s="1"/>
+      <c r="T54" s="4">
+        <v>0</v>
+      </c>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z54" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ54" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK54" s="1"/>
+      <c r="AL54" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ54" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR54" s="1"/>
+      <c r="AS54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT54" s="1"/>
+      <c r="AU54" s="1"/>
+      <c r="AV54" s="1"/>
+      <c r="AW54" s="1"/>
+      <c r="AX54" s="1"/>
+    </row>
+    <row r="55" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N55" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="O55" s="3">
+        <v>5</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="S55" s="1"/>
+      <c r="T55" s="4">
+        <v>0</v>
+      </c>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z55" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ55" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ55" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR55" s="1"/>
+      <c r="AS55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT55" s="1"/>
+      <c r="AU55" s="1"/>
+      <c r="AV55" s="1"/>
+      <c r="AW55" s="1"/>
+      <c r="AX55" s="1"/>
+    </row>
+    <row r="56" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N56" s="3">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="O56" s="3">
+        <v>54</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="S56" s="1"/>
+      <c r="T56" s="4">
+        <v>0</v>
+      </c>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z56" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH56" s="1"/>
+      <c r="AI56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ56" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK56" s="1"/>
+      <c r="AL56" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ56" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR56" s="1"/>
+      <c r="AS56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT56" s="1"/>
+      <c r="AU56" s="1"/>
+      <c r="AV56" s="1"/>
+      <c r="AW56" s="1"/>
+      <c r="AX56" s="1"/>
+    </row>
+    <row r="57" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N57" s="3">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="O57" s="3">
+        <v>10</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="S57" s="1"/>
+      <c r="T57" s="4">
+        <v>0</v>
+      </c>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z57" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ57" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK57" s="1"/>
+      <c r="AL57" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM57" s="1"/>
+      <c r="AN57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ57" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR57" s="1"/>
+      <c r="AS57" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT57" s="1"/>
+      <c r="AU57" s="1"/>
+      <c r="AV57" s="1"/>
+      <c r="AW57" s="1"/>
+      <c r="AX57" s="1"/>
+    </row>
+    <row r="58" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="O58" s="3">
+        <v>63</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="S58" s="1"/>
+      <c r="T58" s="4">
+        <v>0</v>
+      </c>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z58" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="AH58" s="1"/>
+      <c r="AI58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ58" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK58" s="1"/>
+      <c r="AL58" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM58" s="1"/>
+      <c r="AN58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ58" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR58" s="1"/>
+      <c r="AS58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT58" s="1"/>
+      <c r="AU58" s="1"/>
+      <c r="AV58" s="1"/>
+      <c r="AW58" s="1"/>
+      <c r="AX58" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6482,7 +7822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3145B1-AAE0-40F7-B5F7-6D1FB4DE08FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF54D3A-6AB8-4EAE-B9C7-F496E76BCD19}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6494,7 +7834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8128AE30-6973-4D3B-A706-5B327392EE8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700AE8C0-BC94-4F39-90F3-087B128CA2E8}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
